--- a/artifacts/2025/table_vs_history.xlsx
+++ b/artifacts/2025/table_vs_history.xlsx
@@ -590,12 +590,12 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Unemployment</t>
+          <t>US Unemployment</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>Real GDP</t>
+          <t>US Real GDP</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">

--- a/artifacts/2025/table_vs_history.xlsx
+++ b/artifacts/2025/table_vs_history.xlsx
@@ -55,8 +55,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001F2937"/>
-        <bgColor rgb="001F2937"/>
+        <fgColor rgb="000000FF"/>
+        <bgColor rgb="000000FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -523,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,217 +653,221 @@
       <c r="A2" s="4" t="inlineStr"/>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>Δ</t>
+          <t>Pct Points</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>Δ</t>
+          <t>Pct Points</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>Δ</t>
+          <t>Pct Points</t>
         </is>
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>Δ</t>
+          <t>Pct Points</t>
         </is>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>Δ</t>
+          <t>Points</t>
         </is>
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>%Δ</t>
+          <t>Percent</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>Δ</t>
+          <t>Pct Points</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
         <is>
-          <t>%Δ</t>
+          <t>Percent</t>
         </is>
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>%Δ</t>
+          <t>Percent</t>
         </is>
       </c>
       <c r="K2" s="5" t="inlineStr">
         <is>
-          <t>%Δ</t>
+          <t>Percent</t>
         </is>
       </c>
       <c r="L2" s="5" t="inlineStr">
         <is>
-          <t>%Δ</t>
+          <t>Percent</t>
         </is>
       </c>
       <c r="M2" s="5" t="inlineStr">
         <is>
-          <t>%Δ</t>
+          <t>Percent</t>
         </is>
       </c>
       <c r="N2" s="5" t="inlineStr">
         <is>
-          <t>%Δ</t>
+          <t>Percent</t>
         </is>
       </c>
       <c r="O2" s="5" t="inlineStr">
         <is>
-          <t>%Δ</t>
+          <t>Percent</t>
         </is>
       </c>
       <c r="P2" s="5" t="inlineStr">
         <is>
-          <t>%Δ</t>
+          <t>Percent</t>
         </is>
       </c>
       <c r="Q2" s="5" t="inlineStr">
         <is>
-          <t>%Δ</t>
+          <t>Percent</t>
         </is>
       </c>
       <c r="R2" s="5" t="inlineStr">
         <is>
-          <t>%Δ</t>
+          <t>Percent</t>
         </is>
       </c>
       <c r="S2" s="6" t="inlineStr">
         <is>
-          <t>%Δ</t>
+          <t>Percent</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="4" t="inlineStr"/>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>Pct Points</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>Pct Points</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>Pct Points</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>Pct Points</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>Percent</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>Pct Points</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>Percent</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>Percent</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>Percent</t>
-        </is>
-      </c>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>Percent</t>
-        </is>
-      </c>
-      <c r="M3" s="5" t="inlineStr">
-        <is>
-          <t>Percent</t>
-        </is>
-      </c>
-      <c r="N3" s="5" t="inlineStr">
-        <is>
-          <t>Percent</t>
-        </is>
-      </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>Percent</t>
-        </is>
-      </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>Percent</t>
-        </is>
-      </c>
-      <c r="Q3" s="5" t="inlineStr">
-        <is>
-          <t>Percent</t>
-        </is>
-      </c>
-      <c r="R3" s="5" t="inlineStr">
-        <is>
-          <t>Percent</t>
-        </is>
-      </c>
-      <c r="S3" s="6" t="inlineStr">
-        <is>
-          <t>Percent</t>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>CCAR 2019</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>-2.2</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>-2.6</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>-2.2</t>
+        </is>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>33.9</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>-50.0%</t>
+        </is>
+      </c>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>6.2</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>-8.0%</t>
+        </is>
+      </c>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>-26.4%</t>
+        </is>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t>-35.0%</t>
+        </is>
+      </c>
+      <c r="L3" s="8" t="inlineStr">
+        <is>
+          <t>-6.0%</t>
+        </is>
+      </c>
+      <c r="M3" s="8" t="inlineStr">
+        <is>
+          <t>-5.8%</t>
+        </is>
+      </c>
+      <c r="N3" s="8" t="inlineStr">
+        <is>
+          <t>-8.2%</t>
+        </is>
+      </c>
+      <c r="O3" s="8" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="P3" s="8" t="inlineStr">
+        <is>
+          <t>-6.9%</t>
+        </is>
+      </c>
+      <c r="Q3" s="8" t="inlineStr">
+        <is>
+          <t>-2.2%</t>
+        </is>
+      </c>
+      <c r="R3" s="8" t="inlineStr">
+        <is>
+          <t>-4.0%</t>
+        </is>
+      </c>
+      <c r="S3" s="9" t="inlineStr">
+        <is>
+          <t>7.8%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>CCAR 2019</t>
+          <t>CCAR 2020</t>
         </is>
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>-2.2</t>
+          <t>-1.5</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>-1.1</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>-2.2</t>
+          <t>-1.1</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>33.9</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
@@ -873,166 +877,166 @@
       </c>
       <c r="H4" s="8" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="I4" s="8" t="inlineStr">
         <is>
-          <t>-8.0%</t>
+          <t>-8.5%</t>
         </is>
       </c>
       <c r="J4" s="8" t="inlineStr">
         <is>
-          <t>-26.4%</t>
+          <t>-27.8%</t>
         </is>
       </c>
       <c r="K4" s="8" t="inlineStr">
         <is>
-          <t>-35.0%</t>
+          <t>-35.1%</t>
         </is>
       </c>
       <c r="L4" s="8" t="inlineStr">
         <is>
-          <t>-6.0%</t>
+          <t>-5.4%</t>
         </is>
       </c>
       <c r="M4" s="8" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>-6.7%</t>
         </is>
       </c>
       <c r="N4" s="8" t="inlineStr">
         <is>
-          <t>-8.2%</t>
+          <t>-8.5%</t>
         </is>
       </c>
       <c r="O4" s="8" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>-6.9%</t>
+          <t>-11.9%</t>
         </is>
       </c>
       <c r="Q4" s="8" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>-10.5%</t>
         </is>
       </c>
       <c r="R4" s="8" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="S4" s="9" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>11.9%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>CCAR 2020</t>
+          <t>CCAR 2020 Resubmission</t>
         </is>
       </c>
       <c r="B5" s="8" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="F5" s="8" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="G5" s="8" t="inlineStr">
         <is>
-          <t>-50.0%</t>
+          <t>-49.9%</t>
         </is>
       </c>
       <c r="H5" s="8" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>-0.5</t>
         </is>
       </c>
       <c r="I5" s="8" t="inlineStr">
         <is>
-          <t>-8.5%</t>
+          <t>-3.1%</t>
         </is>
       </c>
       <c r="J5" s="8" t="inlineStr">
         <is>
-          <t>-27.8%</t>
+          <t>-28.8%</t>
         </is>
       </c>
       <c r="K5" s="8" t="inlineStr">
         <is>
-          <t>-35.1%</t>
+          <t>-30.2%</t>
         </is>
       </c>
       <c r="L5" s="8" t="inlineStr">
         <is>
-          <t>-5.4%</t>
+          <t>-3.0%</t>
         </is>
       </c>
       <c r="M5" s="8" t="inlineStr">
         <is>
-          <t>-6.7%</t>
+          <t>-3.0%</t>
         </is>
       </c>
       <c r="N5" s="8" t="inlineStr">
         <is>
-          <t>-8.5%</t>
+          <t>-4.5%</t>
         </is>
       </c>
       <c r="O5" s="8" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="P5" s="8" t="inlineStr">
         <is>
-          <t>-11.9%</t>
+          <t>-7.2%</t>
         </is>
       </c>
       <c r="Q5" s="8" t="inlineStr">
         <is>
-          <t>-10.5%</t>
+          <t>-7.2%</t>
         </is>
       </c>
       <c r="R5" s="8" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>-2.9%</t>
         </is>
       </c>
       <c r="S5" s="9" t="inlineStr">
         <is>
-          <t>11.9%</t>
+          <t>5.5%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>CCAR 2020 Resubmission</t>
+          <t>CCAR 2021</t>
         </is>
       </c>
       <c r="B6" s="8" t="inlineStr">
@@ -1042,47 +1046,47 @@
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>-0.6</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>29.7</t>
         </is>
       </c>
       <c r="G6" s="8" t="inlineStr">
         <is>
-          <t>-49.9%</t>
+          <t>-55.0%</t>
         </is>
       </c>
       <c r="H6" s="8" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="I6" s="8" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="J6" s="8" t="inlineStr">
         <is>
-          <t>-28.8%</t>
+          <t>-23.6%</t>
         </is>
       </c>
       <c r="K6" s="8" t="inlineStr">
         <is>
-          <t>-30.2%</t>
+          <t>-40.0%</t>
         </is>
       </c>
       <c r="L6" s="8" t="inlineStr">
@@ -1107,29 +1111,29 @@
       </c>
       <c r="P6" s="8" t="inlineStr">
         <is>
-          <t>-7.2%</t>
+          <t>-3.9%</t>
         </is>
       </c>
       <c r="Q6" s="8" t="inlineStr">
         <is>
-          <t>-7.2%</t>
+          <t>-3.9%</t>
         </is>
       </c>
       <c r="R6" s="8" t="inlineStr">
         <is>
-          <t>-2.9%</t>
+          <t>-2.0%</t>
         </is>
       </c>
       <c r="S6" s="9" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>4.1%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>CCAR 2021</t>
+          <t>CCAR 2022</t>
         </is>
       </c>
       <c r="B7" s="8" t="inlineStr">
@@ -1139,22 +1143,22 @@
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="E7" s="8" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
         <is>
-          <t>29.7</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="G7" s="8" t="inlineStr">
@@ -1164,22 +1168,22 @@
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="I7" s="8" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="J7" s="8" t="inlineStr">
         <is>
-          <t>-23.6%</t>
+          <t>-28.6%</t>
         </is>
       </c>
       <c r="K7" s="8" t="inlineStr">
         <is>
-          <t>-40.0%</t>
+          <t>-39.6%</t>
         </is>
       </c>
       <c r="L7" s="8" t="inlineStr">
@@ -1189,186 +1193,186 @@
       </c>
       <c r="M7" s="8" t="inlineStr">
         <is>
-          <t>-3.0%</t>
+          <t>-4.1%</t>
         </is>
       </c>
       <c r="N7" s="8" t="inlineStr">
         <is>
-          <t>-4.5%</t>
+          <t>-4.8%</t>
         </is>
       </c>
       <c r="O7" s="8" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="P7" s="8" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>-12.3%</t>
         </is>
       </c>
       <c r="Q7" s="8" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>-12.3%</t>
         </is>
       </c>
       <c r="R7" s="8" t="inlineStr">
         <is>
-          <t>-2.0%</t>
+          <t>-8.8%</t>
         </is>
       </c>
       <c r="S7" s="9" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>14.0%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>CCAR 2022</t>
+          <t>CCAR 2023</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-3.9</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>41.4</t>
         </is>
       </c>
       <c r="G8" s="8" t="inlineStr">
         <is>
-          <t>-55.0%</t>
+          <t>-45.0%</t>
         </is>
       </c>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>-8.7%</t>
         </is>
       </c>
       <c r="J8" s="8" t="inlineStr">
         <is>
-          <t>-28.6%</t>
+          <t>-37.9%</t>
         </is>
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>-39.6%</t>
+          <t>-40.0%</t>
         </is>
       </c>
       <c r="L8" s="8" t="inlineStr">
         <is>
-          <t>-3.0%</t>
+          <t>-5.6%</t>
         </is>
       </c>
       <c r="M8" s="8" t="inlineStr">
         <is>
-          <t>-4.1%</t>
+          <t>-6.7%</t>
         </is>
       </c>
       <c r="N8" s="8" t="inlineStr">
         <is>
-          <t>-4.8%</t>
+          <t>-7.8%</t>
         </is>
       </c>
       <c r="O8" s="8" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="P8" s="8" t="inlineStr">
         <is>
-          <t>-12.3%</t>
+          <t>-5.9%</t>
         </is>
       </c>
       <c r="Q8" s="8" t="inlineStr">
         <is>
-          <t>-12.3%</t>
+          <t>-5.9%</t>
         </is>
       </c>
       <c r="R8" s="8" t="inlineStr">
         <is>
-          <t>-8.8%</t>
+          <t>-4.7%</t>
         </is>
       </c>
       <c r="S8" s="9" t="inlineStr">
         <is>
-          <t>14.0%</t>
+          <t>6.2%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>CCAR 2023</t>
+          <t>CCAR 2024 FRB SA</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>-3.9</t>
+          <t>-5.2</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-4.2</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-3.7</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
         <is>
-          <t>41.4</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="G9" s="8" t="inlineStr">
         <is>
-          <t>-45.0%</t>
+          <t>-55.4%</t>
         </is>
       </c>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="I9" s="8" t="inlineStr">
         <is>
-          <t>-8.7%</t>
+          <t>-8.5%</t>
         </is>
       </c>
       <c r="J9" s="8" t="inlineStr">
         <is>
-          <t>-37.9%</t>
+          <t>-36.0%</t>
         </is>
       </c>
       <c r="K9" s="8" t="inlineStr">
@@ -1378,7 +1382,7 @@
       </c>
       <c r="L9" s="8" t="inlineStr">
         <is>
-          <t>-5.6%</t>
+          <t>-6.7%</t>
         </is>
       </c>
       <c r="M9" s="8" t="inlineStr">
@@ -1388,27 +1392,27 @@
       </c>
       <c r="N9" s="8" t="inlineStr">
         <is>
-          <t>-7.8%</t>
+          <t>-9.3%</t>
         </is>
       </c>
       <c r="O9" s="8" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="P9" s="8" t="inlineStr">
         <is>
-          <t>-5.9%</t>
+          <t>-5.8%</t>
         </is>
       </c>
       <c r="Q9" s="8" t="inlineStr">
         <is>
-          <t>-5.9%</t>
+          <t>-5.8%</t>
         </is>
       </c>
       <c r="R9" s="8" t="inlineStr">
         <is>
-          <t>-4.7%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="S9" s="9" t="inlineStr">
@@ -1420,22 +1424,22 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>CCAR 2024 FRB SA</t>
+          <t>CCAR 2024 Exploratory B</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>-4.2</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>-3.7</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
@@ -1460,12 +1464,12 @@
       </c>
       <c r="I10" s="8" t="inlineStr">
         <is>
-          <t>-8.5%</t>
+          <t>-8.0%</t>
         </is>
       </c>
       <c r="J10" s="8" t="inlineStr">
         <is>
-          <t>-36.0%</t>
+          <t>-31.9%</t>
         </is>
       </c>
       <c r="K10" s="8" t="inlineStr">
@@ -1517,57 +1521,57 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>CCAR 2024 Exploratory B</t>
+          <t>CCAR 2024 Exploratory A</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="F11" s="8" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>28.3</t>
         </is>
       </c>
       <c r="G11" s="8" t="inlineStr">
         <is>
-          <t>-55.4%</t>
+          <t>-30.0%</t>
         </is>
       </c>
       <c r="H11" s="8" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="I11" s="8" t="inlineStr">
         <is>
-          <t>-8.0%</t>
+          <t>-2.7%</t>
         </is>
       </c>
       <c r="J11" s="8" t="inlineStr">
         <is>
-          <t>-31.9%</t>
+          <t>-20.1%</t>
         </is>
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>-40.0%</t>
+          <t>-35.0%</t>
         </is>
       </c>
       <c r="L11" s="8" t="inlineStr">
@@ -1612,388 +1616,291 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>CCAR 2024 Exploratory A</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>28.3</t>
-        </is>
-      </c>
-      <c r="G12" s="8" t="inlineStr">
-        <is>
-          <t>-30.0%</t>
-        </is>
-      </c>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>-2.7%</t>
-        </is>
-      </c>
-      <c r="J12" s="8" t="inlineStr">
-        <is>
-          <t>-20.1%</t>
-        </is>
-      </c>
-      <c r="K12" s="8" t="inlineStr">
-        <is>
-          <t>-35.0%</t>
-        </is>
-      </c>
-      <c r="L12" s="8" t="inlineStr">
-        <is>
-          <t>-6.7%</t>
-        </is>
-      </c>
-      <c r="M12" s="8" t="inlineStr">
-        <is>
-          <t>-6.7%</t>
-        </is>
-      </c>
-      <c r="N12" s="8" t="inlineStr">
-        <is>
-          <t>-9.3%</t>
-        </is>
-      </c>
-      <c r="O12" s="8" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="P12" s="8" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
-      <c r="Q12" s="8" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
-      <c r="R12" s="8" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
-      <c r="S12" s="9" t="inlineStr">
-        <is>
-          <t>6.2%</t>
+      <c r="A12" s="10" t="inlineStr">
+        <is>
+          <t>Average FRB SA (2019-2025)</t>
+        </is>
+      </c>
+      <c r="B12" s="11" t="inlineStr">
+        <is>
+          <t>-2.1</t>
+        </is>
+      </c>
+      <c r="C12" s="11" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="D12" s="11" t="inlineStr">
+        <is>
+          <t>-1.9</t>
+        </is>
+      </c>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="F12" s="11" t="inlineStr">
+        <is>
+          <t>37.1</t>
+        </is>
+      </c>
+      <c r="G12" s="11" t="inlineStr">
+        <is>
+          <t>-51.3%</t>
+        </is>
+      </c>
+      <c r="H12" s="11" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="I12" s="11" t="inlineStr">
+        <is>
+          <t>-6.5%</t>
+        </is>
+      </c>
+      <c r="J12" s="11" t="inlineStr">
+        <is>
+          <t>-30.1%</t>
+        </is>
+      </c>
+      <c r="K12" s="11" t="inlineStr">
+        <is>
+          <t>-36.2%</t>
+        </is>
+      </c>
+      <c r="L12" s="11" t="inlineStr">
+        <is>
+          <t>-4.5%</t>
+        </is>
+      </c>
+      <c r="M12" s="11" t="inlineStr">
+        <is>
+          <t>-4.9%</t>
+        </is>
+      </c>
+      <c r="N12" s="11" t="inlineStr">
+        <is>
+          <t>-6.8%</t>
+        </is>
+      </c>
+      <c r="O12" s="11" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="P12" s="11" t="inlineStr">
+        <is>
+          <t>-8.5%</t>
+        </is>
+      </c>
+      <c r="Q12" s="11" t="inlineStr">
+        <is>
+          <t>-7.7%</t>
+        </is>
+      </c>
+      <c r="R12" s="11" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
+      <c r="S12" s="12" t="inlineStr">
+        <is>
+          <t>9.0%</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="inlineStr">
-        <is>
-          <t>Average FRB SA (2019-2025)</t>
-        </is>
-      </c>
-      <c r="B13" s="11" t="inlineStr">
-        <is>
-          <t>-2.1</t>
-        </is>
-      </c>
-      <c r="C13" s="11" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="D13" s="11" t="inlineStr">
-        <is>
-          <t>-1.9</t>
-        </is>
-      </c>
-      <c r="E13" s="11" t="inlineStr">
+      <c r="A13" s="13" t="inlineStr">
+        <is>
+          <t>CCAR 2025 FRB SA</t>
+        </is>
+      </c>
+      <c r="B13" s="14" t="inlineStr">
+        <is>
+          <t>-4.3</t>
+        </is>
+      </c>
+      <c r="C13" s="14" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+      <c r="D13" s="14" t="inlineStr">
+        <is>
+          <t>-3.3</t>
+        </is>
+      </c>
+      <c r="E13" s="14" t="inlineStr">
         <is>
           <t>3.9</t>
         </is>
       </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>37.1</t>
-        </is>
-      </c>
-      <c r="G13" s="11" t="inlineStr">
-        <is>
-          <t>-51.3%</t>
-        </is>
-      </c>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
-      <c r="I13" s="11" t="inlineStr">
-        <is>
-          <t>-6.5%</t>
-        </is>
-      </c>
-      <c r="J13" s="11" t="inlineStr">
-        <is>
-          <t>-30.1%</t>
-        </is>
-      </c>
-      <c r="K13" s="11" t="inlineStr">
-        <is>
-          <t>-36.2%</t>
-        </is>
-      </c>
-      <c r="L13" s="11" t="inlineStr">
-        <is>
-          <t>-4.5%</t>
-        </is>
-      </c>
-      <c r="M13" s="11" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="N13" s="11" t="inlineStr">
-        <is>
-          <t>-6.8%</t>
-        </is>
-      </c>
-      <c r="O13" s="11" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="P13" s="11" t="inlineStr">
-        <is>
-          <t>-8.5%</t>
-        </is>
-      </c>
-      <c r="Q13" s="11" t="inlineStr">
+      <c r="F13" s="14" t="inlineStr">
+        <is>
+          <t>37.4</t>
+        </is>
+      </c>
+      <c r="G13" s="14" t="inlineStr">
+        <is>
+          <t>-50.0%</t>
+        </is>
+      </c>
+      <c r="H13" s="14" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
+      <c r="I13" s="14" t="inlineStr">
+        <is>
+          <t>-7.8%</t>
+        </is>
+      </c>
+      <c r="J13" s="14" t="inlineStr">
+        <is>
+          <t>-33.4%</t>
+        </is>
+      </c>
+      <c r="K13" s="14" t="inlineStr">
+        <is>
+          <t>-30.0%</t>
+        </is>
+      </c>
+      <c r="L13" s="14" t="inlineStr">
+        <is>
+          <t>-4.6%</t>
+        </is>
+      </c>
+      <c r="M13" s="14" t="inlineStr">
+        <is>
+          <t>-5.1%</t>
+        </is>
+      </c>
+      <c r="N13" s="14" t="inlineStr">
         <is>
           <t>-7.7%</t>
         </is>
       </c>
-      <c r="R13" s="11" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="S13" s="12" t="inlineStr">
-        <is>
-          <t>9.0%</t>
+      <c r="O13" s="14" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="P13" s="14" t="inlineStr">
+        <is>
+          <t>-10.4%</t>
+        </is>
+      </c>
+      <c r="Q13" s="14" t="inlineStr">
+        <is>
+          <t>-10.5%</t>
+        </is>
+      </c>
+      <c r="R13" s="14" t="inlineStr">
+        <is>
+          <t>-2.5%</t>
+        </is>
+      </c>
+      <c r="S13" s="15" t="inlineStr">
+        <is>
+          <t>11.7%</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="inlineStr">
-        <is>
-          <t>CCAR 2025 FRB SA</t>
-        </is>
-      </c>
-      <c r="B14" s="14" t="inlineStr">
-        <is>
-          <t>-4.3</t>
-        </is>
-      </c>
-      <c r="C14" s="14" t="inlineStr">
-        <is>
-          <t>-3.6</t>
-        </is>
-      </c>
-      <c r="D14" s="14" t="inlineStr">
-        <is>
-          <t>-3.3</t>
-        </is>
-      </c>
-      <c r="E14" s="14" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
-      <c r="F14" s="14" t="inlineStr">
-        <is>
-          <t>37.4</t>
-        </is>
-      </c>
-      <c r="G14" s="14" t="inlineStr">
-        <is>
-          <t>-50.0%</t>
-        </is>
-      </c>
-      <c r="H14" s="14" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="I14" s="14" t="inlineStr">
-        <is>
-          <t>-7.8%</t>
-        </is>
-      </c>
-      <c r="J14" s="14" t="inlineStr">
-        <is>
-          <t>-33.4%</t>
-        </is>
-      </c>
-      <c r="K14" s="14" t="inlineStr">
-        <is>
-          <t>-30.0%</t>
-        </is>
-      </c>
-      <c r="L14" s="14" t="inlineStr">
-        <is>
-          <t>-4.6%</t>
-        </is>
-      </c>
-      <c r="M14" s="14" t="inlineStr">
-        <is>
-          <t>-5.1%</t>
-        </is>
-      </c>
-      <c r="N14" s="14" t="inlineStr">
-        <is>
-          <t>-7.7%</t>
-        </is>
-      </c>
-      <c r="O14" s="14" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="P14" s="14" t="inlineStr">
-        <is>
-          <t>-10.4%</t>
-        </is>
-      </c>
-      <c r="Q14" s="14" t="inlineStr">
-        <is>
-          <t>-10.5%</t>
-        </is>
-      </c>
-      <c r="R14" s="14" t="inlineStr">
-        <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="S14" s="15" t="inlineStr">
-        <is>
-          <t>11.7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="16" t="inlineStr">
+      <c r="A14" s="16" t="inlineStr">
         <is>
           <t>Financial Crisis Historical</t>
         </is>
       </c>
-      <c r="B15" s="17" t="inlineStr">
+      <c r="B14" s="17" t="inlineStr">
         <is>
           <t>-4.8</t>
         </is>
       </c>
-      <c r="C15" s="17" t="inlineStr">
+      <c r="C14" s="17" t="inlineStr">
         <is>
           <t>-3.1</t>
         </is>
       </c>
-      <c r="D15" s="17" t="inlineStr">
+      <c r="D14" s="17" t="inlineStr">
         <is>
           <t>-2.0</t>
         </is>
       </c>
-      <c r="E15" s="17" t="inlineStr">
+      <c r="E14" s="17" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
-      <c r="F15" s="17" t="inlineStr">
+      <c r="F14" s="17" t="inlineStr">
         <is>
           <t>62.0</t>
         </is>
       </c>
-      <c r="G15" s="17" t="inlineStr">
+      <c r="G14" s="17" t="inlineStr">
         <is>
           <t>-47.5%</t>
         </is>
       </c>
-      <c r="H15" s="17" t="inlineStr">
+      <c r="H14" s="17" t="inlineStr">
         <is>
           <t>5.5</t>
         </is>
       </c>
-      <c r="I15" s="17" t="inlineStr">
+      <c r="I14" s="17" t="inlineStr">
         <is>
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="J15" s="17" t="inlineStr">
+      <c r="J14" s="17" t="inlineStr">
         <is>
           <t>-28.5%</t>
         </is>
       </c>
-      <c r="K15" s="17" t="inlineStr">
+      <c r="K14" s="17" t="inlineStr">
         <is>
           <t>-37.9%</t>
         </is>
       </c>
-      <c r="L15" s="17" t="inlineStr">
+      <c r="L14" s="17" t="inlineStr">
         <is>
           <t>-6.3%</t>
         </is>
       </c>
-      <c r="M15" s="17" t="inlineStr">
+      <c r="M14" s="17" t="inlineStr">
         <is>
           <t>-5.7%</t>
         </is>
       </c>
-      <c r="N15" s="17" t="inlineStr">
+      <c r="N14" s="17" t="inlineStr">
         <is>
           <t>-8.7%</t>
         </is>
       </c>
-      <c r="O15" s="17" t="inlineStr">
+      <c r="O14" s="17" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
       </c>
-      <c r="P15" s="17" t="inlineStr">
+      <c r="P14" s="17" t="inlineStr">
         <is>
           <t>-10.3%</t>
         </is>
       </c>
-      <c r="Q15" s="17" t="inlineStr">
+      <c r="Q14" s="17" t="inlineStr">
         <is>
           <t>-16.9%</t>
         </is>
       </c>
-      <c r="R15" s="17" t="inlineStr">
+      <c r="R14" s="17" t="inlineStr">
         <is>
           <t>-10.9%</t>
         </is>
       </c>
-      <c r="S15" s="18" t="inlineStr">
+      <c r="S14" s="18" t="inlineStr">
         <is>
           <t>2.8%</t>
         </is>
